--- a/binary files/Data 301 Course map.xlsx
+++ b/binary files/Data 301 Course map.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firasm/Sync/Teaching/ubco/data301_course/binary files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD470F-A721-E547-B2C1-1B49A2F40BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FABC3-567F-1548-8D86-64A0C0353034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{DB8961C7-4B63-584D-B429-6BEA620936BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="2" xr2:uid="{DB8961C7-4B63-584D-B429-6BEA620936BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2019 Winter Term 1" sheetId="2" r:id="rId1"/>
     <sheet name="2020 Winter Term 1" sheetId="3" r:id="rId2"/>
+    <sheet name="2020 Winter Term 1-final" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -308,6 +309,78 @@
   </si>
   <si>
     <t>Test 5: Tableau</t>
+  </si>
+  <si>
+    <t>Readings / Videos</t>
+  </si>
+  <si>
+    <t>Introduction to Data Analytics and Community Building</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lab 2: Git &amp; command line</t>
+  </si>
+  <si>
+    <t>Test 1: Git; OS and Excel</t>
+  </si>
+  <si>
+    <t>Introduction to Python</t>
+  </si>
+  <si>
+    <t>Programming in Python</t>
+  </si>
+  <si>
+    <t>Data analysis in Python</t>
+  </si>
+  <si>
+    <t>Lab 5: Data Wrangling/Analysis</t>
+  </si>
+  <si>
+    <t>Introduction to Databases</t>
+  </si>
+  <si>
+    <t>Lab 6: SQL I</t>
+  </si>
+  <si>
+    <t>Test 3: Python and Pandas</t>
+  </si>
+  <si>
+    <t>Working with Databases</t>
+  </si>
+  <si>
+    <t>Lab 7: SQL II</t>
+  </si>
+  <si>
+    <t>Data Visualization with Python</t>
+  </si>
+  <si>
+    <t>Lab 8: Data Visualization</t>
+  </si>
+  <si>
+    <t>Test 4: Databases</t>
+  </si>
+  <si>
+    <t>More Data Visualizations and Tableau [Possible Guest Speaker]</t>
+  </si>
+  <si>
+    <t>Introduction to Tableau</t>
+  </si>
+  <si>
+    <t>Test 5: Data Visualization and Tableau</t>
+  </si>
+  <si>
+    <t>Poster Session: Better Posters v2 [Bonus: Introduction to R]</t>
+  </si>
+  <si>
+    <t>Lab0: (Optional) Installation and setup</t>
+  </si>
+  <si>
+    <t>Command line and Microsoft Excel</t>
+  </si>
+  <si>
+    <t>Command line and Jupyter Lab</t>
   </si>
 </sst>
 </file>
@@ -831,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="48">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -842,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="48">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -853,7 +926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1055,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C23DE3-5BED-8F42-8A29-E393D9E11C28}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+    <sheetView zoomScale="161" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1462,4 +1535,345 @@
     <ignoredError sqref="B2:B4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69171063-8EC6-8842-B21B-7D5A50E96CE9}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="G14" sqref="A1:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/binary files/Data 301 Course map.xlsx
+++ b/binary files/Data 301 Course map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/firasm/Sync/Teaching/ubco/data301_course/binary files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365FABC3-567F-1548-8D86-64A0C0353034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4015A1D6-D06B-AD4C-9F12-B78BC02DD106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="2" xr2:uid="{DB8961C7-4B63-584D-B429-6BEA620936BA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>Week</t>
   </si>
@@ -1541,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69171063-8EC6-8842-B21B-7D5A50E96CE9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="157" workbookViewId="0">
       <selection activeCell="G14" sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
@@ -1587,6 +1587,9 @@
       <c r="C2" t="s">
         <v>68</v>
       </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
       <c r="E2" t="s">
         <v>69</v>
       </c>
